--- a/Reportes_Excel/Reporte_VentasP.xlsx
+++ b/Reportes_Excel/Reporte_VentasP.xlsx
@@ -474,7 +474,7 @@
         <v>23000</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Reportes_Excel/Reporte_VentasP.xlsx
+++ b/Reportes_Excel/Reporte_VentasP.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>id_Factura</t>
   </si>
@@ -60,6 +60,39 @@
   </si>
   <si>
     <t>cama</t>
+  </si>
+  <si>
+    <t>2023-06-28</t>
+  </si>
+  <si>
+    <t>jose</t>
+  </si>
+  <si>
+    <t>beltran</t>
+  </si>
+  <si>
+    <t>2023-06-29</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>2023-06-30</t>
+  </si>
+  <si>
+    <t>sadfdsa</t>
+  </si>
+  <si>
+    <t>asdfasf</t>
+  </si>
+  <si>
+    <t>yuhfu</t>
+  </si>
+  <si>
+    <t>collar</t>
+  </si>
+  <si>
+    <t>Hueso</t>
   </si>
 </sst>
 </file>
@@ -399,7 +432,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +507,3962 @@
         <v>23000</v>
       </c>
       <c r="K2">
-        <v>20</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>60000</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>11400</v>
+      </c>
+      <c r="I3">
+        <v>142800</v>
+      </c>
+      <c r="J3">
+        <v>704500</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>60000</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>11400</v>
+      </c>
+      <c r="I4">
+        <v>142800</v>
+      </c>
+      <c r="J4">
+        <v>704500</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>60000</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>11400</v>
+      </c>
+      <c r="I5">
+        <v>214200</v>
+      </c>
+      <c r="J5">
+        <v>704500</v>
+      </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>60000</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>11400</v>
+      </c>
+      <c r="I6">
+        <v>142800</v>
+      </c>
+      <c r="J6">
+        <v>704500</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>60000</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>11400</v>
+      </c>
+      <c r="I7">
+        <v>120000</v>
+      </c>
+      <c r="J7">
+        <v>704500</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>60000</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>11400</v>
+      </c>
+      <c r="I8">
+        <v>60000</v>
+      </c>
+      <c r="J8">
+        <v>151250</v>
+      </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>60000</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>11400</v>
+      </c>
+      <c r="I9">
+        <v>60000</v>
+      </c>
+      <c r="J9">
+        <v>151250</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>60000</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>11400</v>
+      </c>
+      <c r="I10">
+        <v>60000</v>
+      </c>
+      <c r="J10">
+        <v>2975</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>60000</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>11400</v>
+      </c>
+      <c r="I11">
+        <v>60000</v>
+      </c>
+      <c r="J11">
+        <v>79375</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>60000</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>11400</v>
+      </c>
+      <c r="I12">
+        <v>60000</v>
+      </c>
+      <c r="J12">
+        <v>71400</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>60000</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>11400</v>
+      </c>
+      <c r="I13">
+        <v>60000</v>
+      </c>
+      <c r="J13">
+        <v>71400</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>60000</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>11400</v>
+      </c>
+      <c r="I14">
+        <v>120000</v>
+      </c>
+      <c r="J14">
+        <v>5475</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>60000</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>11400</v>
+      </c>
+      <c r="I15">
+        <v>120000</v>
+      </c>
+      <c r="J15">
+        <v>405150</v>
+      </c>
+      <c r="K15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>60000</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>11400</v>
+      </c>
+      <c r="I16">
+        <v>120000</v>
+      </c>
+      <c r="J16">
+        <v>405150</v>
+      </c>
+      <c r="K16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>60000</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>11400</v>
+      </c>
+      <c r="I17">
+        <v>120000</v>
+      </c>
+      <c r="J17">
+        <v>405150</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>60000</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>11400</v>
+      </c>
+      <c r="I18">
+        <v>60000</v>
+      </c>
+      <c r="J18">
+        <v>71400</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>60000</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>11400</v>
+      </c>
+      <c r="I19">
+        <v>120000</v>
+      </c>
+      <c r="J19">
+        <v>229575</v>
+      </c>
+      <c r="K19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>60000</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>11400</v>
+      </c>
+      <c r="I20">
+        <v>60000</v>
+      </c>
+      <c r="J20">
+        <v>169575</v>
+      </c>
+      <c r="K20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>60000</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>11400</v>
+      </c>
+      <c r="I21">
+        <v>120000</v>
+      </c>
+      <c r="J21">
+        <v>134375</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>60000</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>11400</v>
+      </c>
+      <c r="I22">
+        <v>120000</v>
+      </c>
+      <c r="J22">
+        <v>139375</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>60000</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>11400</v>
+      </c>
+      <c r="I23">
+        <v>120000</v>
+      </c>
+      <c r="J23">
+        <v>322800</v>
+      </c>
+      <c r="K23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>60000</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>11400</v>
+      </c>
+      <c r="I24">
+        <v>180000</v>
+      </c>
+      <c r="J24">
+        <v>322800</v>
+      </c>
+      <c r="K24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>60000</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>11400</v>
+      </c>
+      <c r="I25">
+        <v>120000</v>
+      </c>
+      <c r="J25">
+        <v>210775</v>
+      </c>
+      <c r="K25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>60000</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>11400</v>
+      </c>
+      <c r="I26">
+        <v>60000</v>
+      </c>
+      <c r="J26">
+        <v>210775</v>
+      </c>
+      <c r="K26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>60000</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>11400</v>
+      </c>
+      <c r="I27">
+        <v>60000</v>
+      </c>
+      <c r="J27">
+        <v>386750</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>60000</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>11400</v>
+      </c>
+      <c r="I28">
+        <v>60000</v>
+      </c>
+      <c r="J28">
+        <v>386750</v>
+      </c>
+      <c r="K28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>60000</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>11400</v>
+      </c>
+      <c r="I29">
+        <v>60000</v>
+      </c>
+      <c r="J29">
+        <v>386750</v>
+      </c>
+      <c r="K29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>60000</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>11400</v>
+      </c>
+      <c r="I30">
+        <v>60000</v>
+      </c>
+      <c r="J30">
+        <v>386750</v>
+      </c>
+      <c r="K30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31">
+        <v>60000</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>11400</v>
+      </c>
+      <c r="I31">
+        <v>60000</v>
+      </c>
+      <c r="J31">
+        <v>267750</v>
+      </c>
+      <c r="K31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>60000</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>11400</v>
+      </c>
+      <c r="I32">
+        <v>60000</v>
+      </c>
+      <c r="J32">
+        <v>243950</v>
+      </c>
+      <c r="K32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33">
+        <v>60000</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>11400</v>
+      </c>
+      <c r="I33">
+        <v>60000</v>
+      </c>
+      <c r="J33">
+        <v>243950</v>
+      </c>
+      <c r="K33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34">
+        <v>60000</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>11400</v>
+      </c>
+      <c r="I34">
+        <v>60000</v>
+      </c>
+      <c r="J34">
+        <v>74375</v>
+      </c>
+      <c r="K34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35">
+        <v>60000</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>11400</v>
+      </c>
+      <c r="I35">
+        <v>60000</v>
+      </c>
+      <c r="J35">
+        <v>148750</v>
+      </c>
+      <c r="K35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>60000</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>11400</v>
+      </c>
+      <c r="I36">
+        <v>60000</v>
+      </c>
+      <c r="J36">
+        <v>148750</v>
+      </c>
+      <c r="K36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37">
+        <v>60000</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>11400</v>
+      </c>
+      <c r="I37">
+        <v>60000</v>
+      </c>
+      <c r="J37">
+        <v>169575</v>
+      </c>
+      <c r="K37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38">
+        <v>60000</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>11400</v>
+      </c>
+      <c r="I38">
+        <v>60000</v>
+      </c>
+      <c r="J38">
+        <v>71400</v>
+      </c>
+      <c r="K38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39">
+        <v>60000</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>11400</v>
+      </c>
+      <c r="I39">
+        <v>60000</v>
+      </c>
+      <c r="J39">
+        <v>169575</v>
+      </c>
+      <c r="K39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40">
+        <v>60000</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>11400</v>
+      </c>
+      <c r="I40">
+        <v>60000</v>
+      </c>
+      <c r="J40">
+        <v>169575</v>
+      </c>
+      <c r="K40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>60000</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>11400</v>
+      </c>
+      <c r="I41">
+        <v>60000</v>
+      </c>
+      <c r="J41">
+        <v>169575</v>
+      </c>
+      <c r="K41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>60000</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>11400</v>
+      </c>
+      <c r="I42">
+        <v>60000</v>
+      </c>
+      <c r="J42">
+        <v>79850</v>
+      </c>
+      <c r="K42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43">
+        <v>60000</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>11400</v>
+      </c>
+      <c r="I43">
+        <v>60000</v>
+      </c>
+      <c r="J43">
+        <v>172550</v>
+      </c>
+      <c r="K43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>60000</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>11400</v>
+      </c>
+      <c r="I44">
+        <v>60000</v>
+      </c>
+      <c r="J44">
+        <v>274200</v>
+      </c>
+      <c r="K44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <v>60000</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>11400</v>
+      </c>
+      <c r="I45">
+        <v>60000</v>
+      </c>
+      <c r="J45">
+        <v>274200</v>
+      </c>
+      <c r="K45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>60000</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>11400</v>
+      </c>
+      <c r="I46">
+        <v>120000</v>
+      </c>
+      <c r="J46">
+        <v>274200</v>
+      </c>
+      <c r="K46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>60000</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>11400</v>
+      </c>
+      <c r="I47">
+        <v>60000</v>
+      </c>
+      <c r="J47">
+        <v>79850</v>
+      </c>
+      <c r="K47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48">
+        <v>60000</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>11400</v>
+      </c>
+      <c r="I48">
+        <v>60000</v>
+      </c>
+      <c r="J48">
+        <v>332075</v>
+      </c>
+      <c r="K48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49">
+        <v>2500</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>475</v>
+      </c>
+      <c r="I49">
+        <v>2975</v>
+      </c>
+      <c r="J49">
+        <v>20</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50">
+        <v>2500</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>475</v>
+      </c>
+      <c r="I50">
+        <v>2975</v>
+      </c>
+      <c r="J50">
+        <v>704500</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51">
+        <v>2500</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>475</v>
+      </c>
+      <c r="I51">
+        <v>5950</v>
+      </c>
+      <c r="J51">
+        <v>704500</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52">
+        <v>2500</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>475</v>
+      </c>
+      <c r="I52">
+        <v>5950</v>
+      </c>
+      <c r="J52">
+        <v>704500</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53">
+        <v>2500</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>475</v>
+      </c>
+      <c r="I53">
+        <v>5000</v>
+      </c>
+      <c r="J53">
+        <v>151250</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54">
+        <v>2500</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>475</v>
+      </c>
+      <c r="I54">
+        <v>2500</v>
+      </c>
+      <c r="J54">
+        <v>151250</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55">
+        <v>2500</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>475</v>
+      </c>
+      <c r="I55">
+        <v>2500</v>
+      </c>
+      <c r="J55">
+        <v>2975</v>
+      </c>
+      <c r="K55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56">
+        <v>2500</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>475</v>
+      </c>
+      <c r="I56">
+        <v>2500</v>
+      </c>
+      <c r="J56">
+        <v>98175</v>
+      </c>
+      <c r="K56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57">
+        <v>2500</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>475</v>
+      </c>
+      <c r="I57">
+        <v>7500</v>
+      </c>
+      <c r="J57">
+        <v>79375</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58">
+        <v>2500</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>475</v>
+      </c>
+      <c r="I58">
+        <v>2500</v>
+      </c>
+      <c r="J58">
+        <v>79375</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59">
+        <v>2500</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>475</v>
+      </c>
+      <c r="I59">
+        <v>2500</v>
+      </c>
+      <c r="J59">
+        <v>98175</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60">
+        <v>2500</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>475</v>
+      </c>
+      <c r="I60">
+        <v>2500</v>
+      </c>
+      <c r="J60">
+        <v>98175</v>
+      </c>
+      <c r="K60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61">
+        <v>2500</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>475</v>
+      </c>
+      <c r="I61">
+        <v>5000</v>
+      </c>
+      <c r="J61">
+        <v>5475</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62">
+        <v>2500</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>475</v>
+      </c>
+      <c r="I62">
+        <v>5000</v>
+      </c>
+      <c r="J62">
+        <v>405150</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63">
+        <v>2500</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>475</v>
+      </c>
+      <c r="I63">
+        <v>5000</v>
+      </c>
+      <c r="J63">
+        <v>405150</v>
+      </c>
+      <c r="K63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64">
+        <v>2500</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>475</v>
+      </c>
+      <c r="I64">
+        <v>2500</v>
+      </c>
+      <c r="J64">
+        <v>229575</v>
+      </c>
+      <c r="K64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65">
+        <v>2500</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>475</v>
+      </c>
+      <c r="I65">
+        <v>2500</v>
+      </c>
+      <c r="J65">
+        <v>169575</v>
+      </c>
+      <c r="K65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66">
+        <v>2500</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>475</v>
+      </c>
+      <c r="I66">
+        <v>2500</v>
+      </c>
+      <c r="J66">
+        <v>134375</v>
+      </c>
+      <c r="K66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67">
+        <v>2500</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>475</v>
+      </c>
+      <c r="I67">
+        <v>7500</v>
+      </c>
+      <c r="J67">
+        <v>139375</v>
+      </c>
+      <c r="K67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68">
+        <v>2500</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>475</v>
+      </c>
+      <c r="I68">
+        <v>7500</v>
+      </c>
+      <c r="J68">
+        <v>210775</v>
+      </c>
+      <c r="K68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69">
+        <v>2500</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>475</v>
+      </c>
+      <c r="I69">
+        <v>2500</v>
+      </c>
+      <c r="J69">
+        <v>386750</v>
+      </c>
+      <c r="K69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70">
+        <v>2500</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>475</v>
+      </c>
+      <c r="I70">
+        <v>2500</v>
+      </c>
+      <c r="J70">
+        <v>386750</v>
+      </c>
+      <c r="K70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71">
+        <v>2500</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>475</v>
+      </c>
+      <c r="I71">
+        <v>2500</v>
+      </c>
+      <c r="J71">
+        <v>267750</v>
+      </c>
+      <c r="K71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72">
+        <v>2500</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>475</v>
+      </c>
+      <c r="I72">
+        <v>2500</v>
+      </c>
+      <c r="J72">
+        <v>267750</v>
+      </c>
+      <c r="K72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73">
+        <v>2500</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>475</v>
+      </c>
+      <c r="I73">
+        <v>2500</v>
+      </c>
+      <c r="J73">
+        <v>243950</v>
+      </c>
+      <c r="K73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74">
+        <v>2500</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>475</v>
+      </c>
+      <c r="I74">
+        <v>2500</v>
+      </c>
+      <c r="J74">
+        <v>243950</v>
+      </c>
+      <c r="K74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75">
+        <v>2500</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>475</v>
+      </c>
+      <c r="I75">
+        <v>2500</v>
+      </c>
+      <c r="J75">
+        <v>74375</v>
+      </c>
+      <c r="K75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76">
+        <v>2500</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>475</v>
+      </c>
+      <c r="I76">
+        <v>2500</v>
+      </c>
+      <c r="J76">
+        <v>148750</v>
+      </c>
+      <c r="K76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77">
+        <v>2500</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>475</v>
+      </c>
+      <c r="I77">
+        <v>2500</v>
+      </c>
+      <c r="J77">
+        <v>148750</v>
+      </c>
+      <c r="K77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78">
+        <v>2500</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>475</v>
+      </c>
+      <c r="I78">
+        <v>2500</v>
+      </c>
+      <c r="J78">
+        <v>169575</v>
+      </c>
+      <c r="K78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79">
+        <v>2500</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>475</v>
+      </c>
+      <c r="I79">
+        <v>2500</v>
+      </c>
+      <c r="J79">
+        <v>169575</v>
+      </c>
+      <c r="K79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80">
+        <v>2500</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>475</v>
+      </c>
+      <c r="I80">
+        <v>2500</v>
+      </c>
+      <c r="J80">
+        <v>169575</v>
+      </c>
+      <c r="K80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81">
+        <v>2500</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>475</v>
+      </c>
+      <c r="I81">
+        <v>2500</v>
+      </c>
+      <c r="J81">
+        <v>169575</v>
+      </c>
+      <c r="K81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82">
+        <v>2500</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>475</v>
+      </c>
+      <c r="I82">
+        <v>2500</v>
+      </c>
+      <c r="J82">
+        <v>111625</v>
+      </c>
+      <c r="K82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83">
+        <v>2500</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>475</v>
+      </c>
+      <c r="I83">
+        <v>5000</v>
+      </c>
+      <c r="J83">
+        <v>111625</v>
+      </c>
+      <c r="K83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84">
+        <v>2500</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <v>475</v>
+      </c>
+      <c r="I84">
+        <v>7500</v>
+      </c>
+      <c r="J84">
+        <v>111625</v>
+      </c>
+      <c r="K84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85">
+        <v>2500</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <v>475</v>
+      </c>
+      <c r="I85">
+        <v>7500</v>
+      </c>
+      <c r="J85">
+        <v>188650</v>
+      </c>
+      <c r="K85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86">
+        <v>2500</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>475</v>
+      </c>
+      <c r="I86">
+        <v>5000</v>
+      </c>
+      <c r="J86">
+        <v>188650</v>
+      </c>
+      <c r="K86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87">
+        <v>2500</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>475</v>
+      </c>
+      <c r="I87">
+        <v>5000</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88">
+        <v>2500</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>475</v>
+      </c>
+      <c r="I88">
+        <v>2500</v>
+      </c>
+      <c r="J88">
+        <v>438850</v>
+      </c>
+      <c r="K88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89">
+        <v>2500</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>475</v>
+      </c>
+      <c r="I89">
+        <v>5000</v>
+      </c>
+      <c r="J89">
+        <v>438850</v>
+      </c>
+      <c r="K89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90">
+        <v>2500</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>475</v>
+      </c>
+      <c r="I90">
+        <v>2500</v>
+      </c>
+      <c r="J90">
+        <v>79850</v>
+      </c>
+      <c r="K90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91">
+        <v>2500</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>475</v>
+      </c>
+      <c r="I91">
+        <v>5000</v>
+      </c>
+      <c r="J91">
+        <v>79850</v>
+      </c>
+      <c r="K91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92">
+        <v>2500</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>475</v>
+      </c>
+      <c r="I92">
+        <v>2500</v>
+      </c>
+      <c r="J92">
+        <v>172550</v>
+      </c>
+      <c r="K92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93">
+        <v>2500</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>475</v>
+      </c>
+      <c r="I93">
+        <v>2500</v>
+      </c>
+      <c r="J93">
+        <v>172550</v>
+      </c>
+      <c r="K93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94">
+        <v>2500</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>475</v>
+      </c>
+      <c r="I94">
+        <v>2500</v>
+      </c>
+      <c r="J94">
+        <v>79850</v>
+      </c>
+      <c r="K94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95">
+        <v>2500</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>475</v>
+      </c>
+      <c r="I95">
+        <v>5000</v>
+      </c>
+      <c r="J95">
+        <v>79850</v>
+      </c>
+      <c r="K95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96">
+        <v>2500</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <v>475</v>
+      </c>
+      <c r="I96">
+        <v>5000</v>
+      </c>
+      <c r="J96">
+        <v>332075</v>
+      </c>
+      <c r="K96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>60</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97">
+        <v>80000</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>15200</v>
+      </c>
+      <c r="I97">
+        <v>95200</v>
+      </c>
+      <c r="J97">
+        <v>20</v>
+      </c>
+      <c r="K97">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>63</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98">
+        <v>80000</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>15200</v>
+      </c>
+      <c r="I98">
+        <v>80000</v>
+      </c>
+      <c r="J98">
+        <v>98175</v>
+      </c>
+      <c r="K98">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>66</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99">
+        <v>80000</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>15200</v>
+      </c>
+      <c r="I99">
+        <v>80000</v>
+      </c>
+      <c r="J99">
+        <v>98175</v>
+      </c>
+      <c r="K99">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>70</v>
+      </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100">
+        <v>80000</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>15200</v>
+      </c>
+      <c r="I100">
+        <v>80000</v>
+      </c>
+      <c r="J100">
+        <v>229575</v>
+      </c>
+      <c r="K100">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>71</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101">
+        <v>80000</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>15200</v>
+      </c>
+      <c r="I101">
+        <v>80000</v>
+      </c>
+      <c r="J101">
+        <v>169575</v>
+      </c>
+      <c r="K101">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>76</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102">
+        <v>80000</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>15200</v>
+      </c>
+      <c r="I102">
+        <v>80000</v>
+      </c>
+      <c r="J102">
+        <v>386750</v>
+      </c>
+      <c r="K102">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>77</v>
+      </c>
+      <c r="B103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103">
+        <v>80000</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>15200</v>
+      </c>
+      <c r="I103">
+        <v>80000</v>
+      </c>
+      <c r="J103">
+        <v>267750</v>
+      </c>
+      <c r="K103">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>77</v>
+      </c>
+      <c r="B104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104">
+        <v>80000</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>15200</v>
+      </c>
+      <c r="I104">
+        <v>80000</v>
+      </c>
+      <c r="J104">
+        <v>267750</v>
+      </c>
+      <c r="K104">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>78</v>
+      </c>
+      <c r="B105" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105">
+        <v>80000</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>15200</v>
+      </c>
+      <c r="I105">
+        <v>80000</v>
+      </c>
+      <c r="J105">
+        <v>243950</v>
+      </c>
+      <c r="K105">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>81</v>
+      </c>
+      <c r="B106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106">
+        <v>80000</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>15200</v>
+      </c>
+      <c r="I106">
+        <v>80000</v>
+      </c>
+      <c r="J106">
+        <v>169575</v>
+      </c>
+      <c r="K106">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>83</v>
+      </c>
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107">
+        <v>80000</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>15200</v>
+      </c>
+      <c r="I107">
+        <v>80000</v>
+      </c>
+      <c r="J107">
+        <v>169575</v>
+      </c>
+      <c r="K107">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>84</v>
+      </c>
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108">
+        <v>80000</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>15200</v>
+      </c>
+      <c r="I108">
+        <v>80000</v>
+      </c>
+      <c r="J108">
+        <v>169575</v>
+      </c>
+      <c r="K108">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>85</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109">
+        <v>80000</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>15200</v>
+      </c>
+      <c r="I109">
+        <v>80000</v>
+      </c>
+      <c r="J109">
+        <v>169575</v>
+      </c>
+      <c r="K109">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>86</v>
+      </c>
+      <c r="B110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110">
+        <v>80000</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>15200</v>
+      </c>
+      <c r="I110">
+        <v>80000</v>
+      </c>
+      <c r="J110">
+        <v>111625</v>
+      </c>
+      <c r="K110">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>87</v>
+      </c>
+      <c r="B111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" t="s">
+        <v>25</v>
+      </c>
+      <c r="F111">
+        <v>80000</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <v>15200</v>
+      </c>
+      <c r="I111">
+        <v>160000</v>
+      </c>
+      <c r="J111">
+        <v>188650</v>
+      </c>
+      <c r="K111">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>89</v>
+      </c>
+      <c r="B112" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112">
+        <v>80000</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112">
+        <v>15200</v>
+      </c>
+      <c r="I112">
+        <v>240000</v>
+      </c>
+      <c r="J112">
+        <v>438850</v>
+      </c>
+      <c r="K112">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>89</v>
+      </c>
+      <c r="B113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113">
+        <v>80000</v>
+      </c>
+      <c r="G113">
+        <v>2</v>
+      </c>
+      <c r="H113">
+        <v>15200</v>
+      </c>
+      <c r="I113">
+        <v>160000</v>
+      </c>
+      <c r="J113">
+        <v>438850</v>
+      </c>
+      <c r="K113">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>91</v>
+      </c>
+      <c r="B114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114">
+        <v>80000</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>15200</v>
+      </c>
+      <c r="I114">
+        <v>80000</v>
+      </c>
+      <c r="J114">
+        <v>172550</v>
+      </c>
+      <c r="K114">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>94</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115">
+        <v>80000</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+      <c r="H115">
+        <v>15200</v>
+      </c>
+      <c r="I115">
+        <v>240000</v>
+      </c>
+      <c r="J115">
+        <v>332075</v>
+      </c>
+      <c r="K115">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
